--- a/Descargas/R15_Corte De Apelaciones De San Miguel_Ingresos Corte_2020-Diciembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De San Miguel_Ingresos Corte_2020-Diciembre.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
